--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 4 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2025 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B0FAD-BB56-4F69-AB9B-BE2676DE7C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F763C2C-7304-40F7-9548-D13A79F3AA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,10 +475,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q4_2024_Obligations__c</t>
+    <t>Q1_2025_Obligations__c</t>
   </si>
   <si>
-    <t>Q4_2024_Expenditures__c</t>
+    <t>Q1_2025_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -36155,21 +36155,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -36386,32 +36371,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36428,4 +36403,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2025 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2025 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583F214-2218-48C3-87AF-6D40E8D48814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CBD2FC-A963-4289-954C-C09205C356BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17472" windowHeight="13704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,12 +475,6 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q1_2025_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q1_2025_Expenditures__c</t>
-  </si>
-  <si>
     <t>Prog_Income_Earned_After_12_31_24__c</t>
   </si>
   <si>
@@ -497,6 +491,12 @@
   </si>
   <si>
     <t>Program Income reported after Q4 2024 expended</t>
+  </si>
+  <si>
+    <t>Q2_2025_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q2_2025_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1057,10 +1057,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>30</v>
@@ -1120,13 +1120,13 @@
         <v>74</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,13 +1340,13 @@
         <v>76</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="409.6" x14ac:dyDescent="0.25">
@@ -1450,13 +1450,13 @@
         <v>85</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -39198,12 +39198,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39424,15 +39421,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39457,18 +39466,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>